--- a/src/main/resources/objectLocator/MENU.xlsx
+++ b/src/main/resources/objectLocator/MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9352858-3796-476F-82DD-3F5DE5CCF6AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE48E4-15DE-4048-BABB-39519374F365}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounting" sheetId="32" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t>ObjReference</t>
   </si>
@@ -249,6 +249,12 @@
   <si>
     <t>//*[contains(text(),'Portfolio Insight | User Event Setup')]</t>
   </si>
+  <si>
+    <t>knowledgeLogo</t>
+  </si>
+  <si>
+    <t>//*[@id='logo']</t>
+  </si>
 </sst>
 </file>
 
@@ -384,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -440,7 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3946,9 +3951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E894A683-37C6-48F0-A478-46F9E3A29982}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4056,9 +4061,17 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -6801,7 +6814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A404F8-1CA8-4F79-A11C-18F459A3DCD3}">
   <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
@@ -6816,182 +6829,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="22" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="22" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="22" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="22" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>6</v>
       </c>
     </row>
